--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>20.1</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>18.2</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>20.25</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="117">
@@ -10601,7 +10603,9 @@
       <c r="C116" t="n">
         <v>17.92</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.32</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10612,7 +10616,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.82</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="117">
@@ -15773,7 +15777,9 @@
       <c r="C116" t="n">
         <v>17.94</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.94</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15784,7 +15790,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="117">
@@ -20945,7 +20951,9 @@
       <c r="C116" t="n">
         <v>19.3</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>16.7</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20956,7 +20964,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>19.3</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="117">
@@ -26023,7 +26031,9 @@
       <c r="C116" t="n">
         <v>18</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14.8</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -26034,7 +26044,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.55</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="117">
@@ -31195,7 +31205,9 @@
       <c r="C116" t="n">
         <v>18.4</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.2</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -31206,7 +31218,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.1</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="117">
@@ -36367,7 +36379,9 @@
       <c r="C116" t="n">
         <v>17.5</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14.8</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36378,7 +36392,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.15</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="117">
@@ -41539,7 +41553,9 @@
       <c r="C116" t="n">
         <v>18.45</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.85</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41550,7 +41566,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.42</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="117">
@@ -46711,7 +46727,9 @@
       <c r="C116" t="n">
         <v>18.45</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.85</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46722,7 +46740,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.42</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>18.2</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>17.9</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>19.57</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="117">
@@ -10606,7 +10608,9 @@
       <c r="D116" t="n">
         <v>15.32</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.22</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10616,7 +10620,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.99</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="117">
@@ -15780,7 +15784,9 @@
       <c r="D116" t="n">
         <v>15.94</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.44</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15790,7 +15796,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.14</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="117">
@@ -20954,7 +20960,9 @@
       <c r="D116" t="n">
         <v>16.7</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.7</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20964,7 +20972,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.43</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="117">
@@ -26034,7 +26042,9 @@
       <c r="D116" t="n">
         <v>14.8</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>13.6</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -26044,7 +26054,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.3</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="117">
@@ -31208,7 +31218,9 @@
       <c r="D116" t="n">
         <v>15.2</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>13.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -31218,7 +31230,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.13</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="117">
@@ -36382,7 +36394,9 @@
       <c r="D116" t="n">
         <v>14.8</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>12.9</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36392,7 +36406,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.37</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="117">
@@ -41556,7 +41570,9 @@
       <c r="D116" t="n">
         <v>15.85</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.47</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41566,7 +41582,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.56</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="117">
@@ -46730,7 +46746,9 @@
       <c r="D116" t="n">
         <v>15.85</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.47</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46740,7 +46758,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.56</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>12.2</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.7</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="117">
@@ -10626,13 +10628,15 @@
       <c r="H116" t="n">
         <v>8.52</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.75</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="117">
@@ -15808,13 +15812,15 @@
       <c r="H116" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.74</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.31</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="117">
@@ -20990,13 +20996,15 @@
       <c r="H116" t="n">
         <v>9.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.63</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="117">
@@ -26078,13 +26086,15 @@
       <c r="H116" t="n">
         <v>8.6</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.7</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.74</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="117">
@@ -31260,13 +31270,15 @@
       <c r="H116" t="n">
         <v>7.5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.34</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="117">
@@ -36442,13 +36454,15 @@
       <c r="H116" t="n">
         <v>8.5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.04</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="117">
@@ -41624,13 +41638,15 @@
       <c r="H116" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.41</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.22</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="117">
@@ -46806,13 +46822,15 @@
       <c r="H116" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.41</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.22</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>10.9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.98</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="117">
@@ -10631,12 +10633,14 @@
       <c r="I116" t="n">
         <v>7.82</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>12.02</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.01</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="117">
@@ -15815,12 +15819,14 @@
       <c r="I116" t="n">
         <v>8.74</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.84</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.62</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="117">
@@ -20999,12 +21005,14 @@
       <c r="I116" t="n">
         <v>8.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.81</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="117">
@@ -26089,12 +26097,14 @@
       <c r="I116" t="n">
         <v>7.7</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.99</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="117">
@@ -31273,12 +31283,14 @@
       <c r="I116" t="n">
         <v>7.5</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.61</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="117">
@@ -36457,12 +36469,14 @@
       <c r="I116" t="n">
         <v>8.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.42</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="117">
@@ -41641,12 +41655,14 @@
       <c r="I116" t="n">
         <v>8.41</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.85</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.49</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">
@@ -46825,12 +46841,14 @@
       <c r="I116" t="n">
         <v>8.41</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.85</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.49</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>14.2</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.78</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="117">
@@ -10636,11 +10638,13 @@
       <c r="J116" t="n">
         <v>12.02</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.32</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.9</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="117">
@@ -15822,11 +15826,13 @@
       <c r="J116" t="n">
         <v>11.84</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.24</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.42</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="117">
@@ -21008,11 +21014,13 @@
       <c r="J116" t="n">
         <v>11.9</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>13</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.6</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="117">
@@ -26100,11 +26108,13 @@
       <c r="J116" t="n">
         <v>10.8</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.74</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="117">
@@ -31286,11 +31296,13 @@
       <c r="J116" t="n">
         <v>11.3</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="117">
@@ -36472,11 +36484,13 @@
       <c r="J116" t="n">
         <v>10.9</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="117">
@@ -41658,11 +41672,13 @@
       <c r="J116" t="n">
         <v>11.85</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.54</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="117">
@@ -46844,11 +46860,13 @@
       <c r="J116" t="n">
         <v>11.85</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.54</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>15.3</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>16.7</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.73</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="117">
@@ -10641,10 +10643,12 @@
       <c r="K116" t="n">
         <v>12.32</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.42</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.84</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="117">
@@ -15829,10 +15833,12 @@
       <c r="K116" t="n">
         <v>12.24</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.74</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.3</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="117">
@@ -21017,10 +21023,12 @@
       <c r="K116" t="n">
         <v>13</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.9</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.54</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="117">
@@ -26111,10 +26119,12 @@
       <c r="K116" t="n">
         <v>10.9</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.2</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.56</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="117">
@@ -31299,10 +31309,12 @@
       <c r="K116" t="n">
         <v>12.1</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.5</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.43</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="117">
@@ -36487,10 +36499,12 @@
       <c r="K116" t="n">
         <v>11.9</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>12.3</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.22</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="117">
@@ -41675,10 +41689,12 @@
       <c r="K116" t="n">
         <v>12.54</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.11</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.23</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">
@@ -46863,10 +46879,12 @@
       <c r="K116" t="n">
         <v>12.54</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.11</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.23</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,54 +5536,74 @@
       <c r="L116" t="n">
         <v>16.7</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>19.6</v>
+      </c>
       <c r="N116" t="n">
-        <v>15.82</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>19.99</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>20.49</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>18.89</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>16.59</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>14.24</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>12.07</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>11.15</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>11.74</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>13.15</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>14.57</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>16.21</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>18.51</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>15.63</v>
       </c>
     </row>
@@ -5598,7 +5618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10646,54 +10666,74 @@
       <c r="L116" t="n">
         <v>14.42</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>17.72</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.98</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>17.69</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.69</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.75</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.95</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>10.54</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.74</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.25</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.02</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.61</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>16.11</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.6</v>
       </c>
     </row>
@@ -10708,7 +10748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15836,54 +15876,74 @@
       <c r="L116" t="n">
         <v>13.74</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>15.94</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.34</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>16.9</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.23</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.85</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.78</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.98</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>9.81</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.81</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.05</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.42</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.51</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>13.01</v>
       </c>
     </row>
@@ -15898,7 +15958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21026,54 +21086,74 @@
       <c r="L116" t="n">
         <v>14.9</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>18.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.66</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>18.13</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>18.22</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>16.43</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.69</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.16</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.48</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.65</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.83</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.66</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.71</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>14.45</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>16.69</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>13.09</v>
       </c>
     </row>
@@ -21088,7 +21168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26122,54 +26202,74 @@
       <c r="L116" t="n">
         <v>13.2</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>15.4</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.62</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>15.75</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>16.04</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>14.68</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.59</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>10.55</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.56</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.43</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>11.2</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>12.58</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>14.54</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>11.85</v>
       </c>
     </row>
@@ -26184,7 +26284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31312,54 +31412,74 @@
       <c r="L116" t="n">
         <v>13.5</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.7</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.53</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>16.86</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>16.8</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>14.99</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.25</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>9.76</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>6.92</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>6.4</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>7.71</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>11.6</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.28</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.46</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>11.81</v>
       </c>
     </row>
@@ -31374,7 +31494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36502,54 +36622,74 @@
       <c r="L116" t="n">
         <v>12.3</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>14.8</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.23</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>15.23</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>15.09</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>13.87</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>11.79</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>7.35</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>6.7</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>7.79</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>10.95</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>12.31</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>14</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>11.19</v>
       </c>
     </row>
@@ -36564,7 +36704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41692,54 +41832,74 @@
       <c r="L116" t="n">
         <v>14.11</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.91</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>17.22</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.36</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.78</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.38</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.12</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.75</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.57</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.16</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.69</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.83</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.74</v>
       </c>
     </row>
@@ -41754,7 +41914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46882,54 +47042,74 @@
       <c r="L116" t="n">
         <v>14.11</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.91</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>17.22</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.36</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.78</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.38</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.12</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.75</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.57</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.16</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.69</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.83</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.74</v>
       </c>
     </row>

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>21.6</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -10677,7 +10681,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>19.32</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10689,7 +10695,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>19.32</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -15887,7 +15895,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.44</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15899,7 +15909,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.44</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -21097,7 +21109,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>19.4</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -21109,7 +21123,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -26213,7 +26229,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>16.5</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26225,7 +26243,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -31423,7 +31443,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.3</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31435,7 +31457,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -36633,7 +36657,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>16.1</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36645,7 +36671,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -41843,7 +41871,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.52</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41855,7 +41885,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.52</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -47053,7 +47085,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.52</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -47065,7 +47099,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.52</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>21.6</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>20.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>21.6</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="118">
@@ -10684,7 +10686,9 @@
       <c r="B117" t="n">
         <v>19.32</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.72</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10696,7 +10700,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.32</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="118">
@@ -15898,7 +15902,9 @@
       <c r="B117" t="n">
         <v>18.44</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.34</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15910,7 +15916,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.44</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="118">
@@ -21112,7 +21118,9 @@
       <c r="B117" t="n">
         <v>19.4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>18.1</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -21124,7 +21132,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.4</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="118">
@@ -26232,7 +26240,9 @@
       <c r="B117" t="n">
         <v>16.5</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>14.8</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26244,7 +26254,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.5</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="118">
@@ -31446,7 +31456,9 @@
       <c r="B117" t="n">
         <v>18.3</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>16.6</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31458,7 +31470,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.3</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="118">
@@ -36660,7 +36672,9 @@
       <c r="B117" t="n">
         <v>16.1</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>15.7</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36672,7 +36686,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="118">
@@ -41874,7 +41888,9 @@
       <c r="B117" t="n">
         <v>18.52</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.25</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41886,7 +41902,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.52</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="118">
@@ -47088,7 +47104,9 @@
       <c r="B117" t="n">
         <v>18.52</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.25</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -47100,7 +47118,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.52</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>20.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>17.8</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>21.05</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="118">
@@ -10689,7 +10691,9 @@
       <c r="C117" t="n">
         <v>17.72</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.82</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10700,7 +10704,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.52</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="118">
@@ -15905,7 +15909,9 @@
       <c r="C117" t="n">
         <v>17.34</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>15.14</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15916,7 +15922,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.89</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="118">
@@ -21121,7 +21127,9 @@
       <c r="C117" t="n">
         <v>18.1</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>15.7</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -21132,7 +21140,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.75</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="118">
@@ -26243,7 +26251,9 @@
       <c r="C117" t="n">
         <v>14.8</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>13.4</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26254,7 +26264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.65</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="118">
@@ -31459,7 +31469,9 @@
       <c r="C117" t="n">
         <v>16.6</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>13.7</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31470,7 +31482,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.45</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="118">
@@ -36675,7 +36687,9 @@
       <c r="C117" t="n">
         <v>15.7</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>13</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36686,7 +36700,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.9</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="118">
@@ -41891,7 +41905,9 @@
       <c r="C117" t="n">
         <v>17.25</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.79</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41902,7 +41918,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.88</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="118">
@@ -47107,7 +47123,9 @@
       <c r="C117" t="n">
         <v>17.25</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.79</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -47118,7 +47136,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.88</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>17.8</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>17</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.97</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="118">
@@ -10694,7 +10696,9 @@
       <c r="D117" t="n">
         <v>14.82</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.32</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10704,7 +10708,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.29</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="118">
@@ -15912,7 +15916,9 @@
       <c r="D117" t="n">
         <v>15.14</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>14.14</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15922,7 +15928,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.97</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="118">
@@ -21130,7 +21136,9 @@
       <c r="D117" t="n">
         <v>15.7</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>14.3</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21140,7 +21148,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.73</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="118">
@@ -26254,7 +26262,9 @@
       <c r="D117" t="n">
         <v>13.4</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>12.8</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26264,7 +26274,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.9</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="118">
@@ -31388,7 +31398,7 @@
         <v>13.2</v>
       </c>
       <c r="F115" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="G115" t="n">
         <v>8.199999999999999</v>
@@ -31412,7 +31422,7 @@
         <v>16.4</v>
       </c>
       <c r="N115" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="116">
@@ -31472,7 +31482,9 @@
       <c r="D117" t="n">
         <v>13.7</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31482,7 +31494,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="118">
@@ -36690,7 +36702,9 @@
       <c r="D117" t="n">
         <v>13</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>12.2</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36700,7 +36714,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.93</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="118">
@@ -41824,7 +41838,7 @@
         <v>14.54</v>
       </c>
       <c r="F115" t="n">
-        <v>12.57</v>
+        <v>12.55</v>
       </c>
       <c r="G115" t="n">
         <v>9.91</v>
@@ -41908,7 +41922,9 @@
       <c r="D117" t="n">
         <v>14.79</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.82</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41918,7 +41934,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.85</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="118">
@@ -47042,7 +47058,7 @@
         <v>14.54</v>
       </c>
       <c r="F115" t="n">
-        <v>12.57</v>
+        <v>12.55</v>
       </c>
       <c r="G115" t="n">
         <v>9.91</v>
@@ -47126,7 +47142,9 @@
       <c r="D117" t="n">
         <v>14.79</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.82</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -47136,7 +47154,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.85</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>17</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>13.1</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -10699,7 +10701,9 @@
       <c r="E117" t="n">
         <v>13.32</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10708,7 +10712,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.3</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="118">
@@ -15919,7 +15923,9 @@
       <c r="E117" t="n">
         <v>14.14</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>10.54</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15928,7 +15934,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.26</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="118">
@@ -21139,7 +21145,9 @@
       <c r="E117" t="n">
         <v>14.3</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.9</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21148,7 +21156,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.88</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="118">
@@ -26265,7 +26273,9 @@
       <c r="E117" t="n">
         <v>12.8</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26274,7 +26284,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.38</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="118">
@@ -31485,7 +31495,9 @@
       <c r="E117" t="n">
         <v>13</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>7.5</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31494,7 +31506,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.4</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="118">
@@ -36705,7 +36717,9 @@
       <c r="E117" t="n">
         <v>12.2</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36714,7 +36728,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.25</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="118">
@@ -41925,7 +41939,9 @@
       <c r="E117" t="n">
         <v>13.82</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.82</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41934,7 +41950,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.1</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="118">
@@ -47145,7 +47161,9 @@
       <c r="E117" t="n">
         <v>13.82</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.82</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -47154,7 +47172,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.1</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>13.1</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>13.4</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="118">
@@ -10704,7 +10706,9 @@
       <c r="F117" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.119999999999999</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10712,7 +10716,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.88</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="118">
@@ -15926,7 +15930,9 @@
       <c r="F117" t="n">
         <v>10.54</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>10.64</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15934,7 +15940,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.12</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="118">
@@ -21148,7 +21154,9 @@
       <c r="F117" t="n">
         <v>9.9</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21156,7 +21164,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.48</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="118">
@@ -26276,7 +26284,9 @@
       <c r="F117" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.6</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26284,7 +26294,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.44</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="118">
@@ -31498,7 +31508,9 @@
       <c r="F117" t="n">
         <v>7.5</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31506,7 +31518,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.82</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="118">
@@ -36720,7 +36732,9 @@
       <c r="F117" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>8.9</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36728,7 +36742,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.16</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="118">
@@ -41942,7 +41956,9 @@
       <c r="F117" t="n">
         <v>9.82</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41950,7 +41966,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.84</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="118">
@@ -47164,7 +47180,9 @@
       <c r="F117" t="n">
         <v>9.82</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -47172,7 +47190,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.84</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>13.4</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>11.6</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.23</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="118">
@@ -10709,14 +10711,16 @@
       <c r="G117" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.52</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.92</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="118">
@@ -15933,14 +15937,16 @@
       <c r="G117" t="n">
         <v>10.64</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>9.84</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.37</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="118">
@@ -21157,14 +21163,16 @@
       <c r="G117" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.52</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="118">
@@ -26287,14 +26295,16 @@
       <c r="G117" t="n">
         <v>9.6</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.8</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="118">
@@ -31511,14 +31521,16 @@
       <c r="G117" t="n">
         <v>7.8</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>7.2</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.82</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="118">
@@ -36735,14 +36747,16 @@
       <c r="G117" t="n">
         <v>8.9</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.4</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.45</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="118">
@@ -41959,14 +41973,16 @@
       <c r="G117" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.99</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.01</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="118">
@@ -47183,14 +47199,16 @@
       <c r="G117" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.99</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.01</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_rounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_unrounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMean_rounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMean_unrounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>11.6</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.43</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="118">
@@ -10714,13 +10715,15 @@
       <c r="H117" t="n">
         <v>8.52</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.15</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="118">
@@ -15940,13 +15943,15 @@
       <c r="H117" t="n">
         <v>9.84</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>10.44</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.73</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="118">
@@ -21166,13 +21171,15 @@
       <c r="H117" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.69</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="118">
@@ -26298,13 +26305,15 @@
       <c r="H117" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.21</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="118">
@@ -31524,13 +31533,15 @@
       <c r="H117" t="n">
         <v>7.2</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.01</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="118">
@@ -36750,13 +36761,15 @@
       <c r="H117" t="n">
         <v>8.4</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.87</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="118">
@@ -41976,13 +41989,15 @@
       <c r="H117" t="n">
         <v>8.99</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.3</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="118">
@@ -47202,13 +47217,15 @@
       <c r="H117" t="n">
         <v>8.99</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.3</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>12.4</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>14</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.92</v>
+        <v>15.71</v>
       </c>
     </row>
     <row r="118">
@@ -10718,12 +10720,14 @@
       <c r="I117" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.82</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.72</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="118">
@@ -15946,12 +15950,14 @@
       <c r="I117" t="n">
         <v>10.44</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.44</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.32</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="118">
@@ -21174,12 +21180,14 @@
       <c r="I117" t="n">
         <v>9.4</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.15</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="118">
@@ -26308,12 +26316,14 @@
       <c r="I117" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.85</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="118">
@@ -31536,12 +31546,14 @@
       <c r="I117" t="n">
         <v>8.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="118">
@@ -36764,12 +36776,14 @@
       <c r="I117" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.49</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="118">
@@ -41992,12 +42006,14 @@
       <c r="I117" t="n">
         <v>9.81</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.22</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.86</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="118">
@@ -47220,12 +47236,14 @@
       <c r="I117" t="n">
         <v>9.81</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.22</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.86</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>14</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.71</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="118">
@@ -10723,11 +10725,13 @@
       <c r="J117" t="n">
         <v>10.82</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.92</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.51</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="118">
@@ -15953,11 +15957,13 @@
       <c r="J117" t="n">
         <v>11.44</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>13.04</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.11</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="118">
@@ -21183,11 +21189,13 @@
       <c r="J117" t="n">
         <v>11.1</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>13</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.92</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="118">
@@ -26319,11 +26327,13 @@
       <c r="J117" t="n">
         <v>9.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.63</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="118">
@@ -31549,11 +31559,13 @@
       <c r="J117" t="n">
         <v>10.7</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.49</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="118">
@@ -36779,11 +36791,13 @@
       <c r="J117" t="n">
         <v>10.6</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.39</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="118">
@@ -42009,11 +42023,13 @@
       <c r="J117" t="n">
         <v>11.22</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.91</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="118">
@@ -47239,11 +47255,13 @@
       <c r="J117" t="n">
         <v>11.22</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.91</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMean_rounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,55 +5576,81 @@
       <c r="K117" t="n">
         <v>15.4</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>19.8</v>
+      </c>
       <c r="N117" t="n">
-        <v>15.68</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>19.99</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>20.49</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>18.89</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>16.59</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>14.24</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>12.07</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>11.15</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>11.74</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>13.15</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>14.57</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>16.21</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>18.51</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>15.63</v>
       </c>
     </row>
@@ -5639,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10728,55 +10754,81 @@
       <c r="K117" t="n">
         <v>12.92</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="M117" t="n">
+        <v>17.82</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.55</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>17.69</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.69</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.75</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.95</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10.54</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.74</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.25</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.02</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.61</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>16.11</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.6</v>
       </c>
     </row>
@@ -10791,7 +10843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15960,55 +16012,81 @@
       <c r="K117" t="n">
         <v>13.04</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="M117" t="n">
+        <v>16.54</v>
+      </c>
       <c r="N117" t="n">
-        <v>13.1</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>16.9</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.23</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.85</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.78</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.98</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>9.81</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.81</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.05</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.42</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.51</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>13.01</v>
       </c>
     </row>
@@ -16023,7 +16101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21192,55 +21270,81 @@
       <c r="K117" t="n">
         <v>13</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>18.6</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.93</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>18.13</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>18.22</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>16.43</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.69</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.16</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.48</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.65</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.83</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.66</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.71</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>14.45</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>16.69</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>13.09</v>
       </c>
     </row>
@@ -21255,7 +21359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26330,55 +26434,75 @@
       <c r="K117" t="n">
         <v>12</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>13.1</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.67</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>15.75</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>16.04</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>14.68</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.59</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10.55</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.56</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.43</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>11.2</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>12.58</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>14.54</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>11.85</v>
       </c>
     </row>
@@ -26393,7 +26517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31562,55 +31686,81 @@
       <c r="K117" t="n">
         <v>12.3</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>16.8</v>
+      </c>
       <c r="N117" t="n">
-        <v>11.57</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>16.86</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>16.8</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>14.99</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.25</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>9.76</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>6.92</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>6.4</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>7.71</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>11.6</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.28</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.46</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>11.81</v>
       </c>
     </row>
@@ -31625,7 +31775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36794,55 +36944,81 @@
       <c r="K117" t="n">
         <v>11.7</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="M117" t="n">
+        <v>15.5</v>
+      </c>
       <c r="N117" t="n">
-        <v>11.42</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>15.23</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>15.09</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>13.87</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>11.79</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>7.35</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>6.7</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>7.79</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>10.95</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>12.31</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>14</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>11.19</v>
       </c>
     </row>
@@ -36857,7 +37033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42026,55 +42202,81 @@
       <c r="K117" t="n">
         <v>12.91</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="M117" t="n">
+        <v>17.51</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.7</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>17.22</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.36</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.78</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.38</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.12</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.75</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.57</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.16</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.69</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.83</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.74</v>
       </c>
     </row>
@@ -42089,7 +42291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47258,55 +47460,81 @@
       <c r="K117" t="n">
         <v>12.91</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="M117" t="n">
+        <v>17.51</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.7</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>17.22</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.36</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.78</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.38</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.12</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.75</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.57</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.16</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.69</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.83</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.74</v>
       </c>
     </row>
